--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -727,7 +733,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,6 +783,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -882,6 +889,9 @@
                 <c:pt idx="0">
                   <c:v>40440</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>41183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -892,7 +902,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1461,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1538,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1542,7 +1555,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1559,7 +1572,7 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1576,7 +1589,7 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,6 +1605,9 @@
       <c r="D9" t="s">
         <v>92</v>
       </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
@@ -1606,19 +1622,25 @@
       <c r="D10" t="s">
         <v>92</v>
       </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1628,11 +1650,14 @@
       <c r="B12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1648,6 +1673,9 @@
       <c r="D13" t="s">
         <v>93</v>
       </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
@@ -1661,6 +1689,9 @@
       </c>
       <c r="D14" t="s">
         <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1840,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1881,10 +1912,30 @@
         <v>40440</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1904,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2010,7 +2061,7 @@
       <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -2025,9 +2076,14 @@
       <c r="F5" s="29">
         <v>60</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <v>23</v>
+      </c>
+      <c r="H5" s="16">
+        <v>60</v>
+      </c>
       <c r="I5" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2049,9 +2105,14 @@
       <c r="F6" s="29">
         <v>60</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16">
+        <v>15</v>
+      </c>
       <c r="I6" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2260,13 +2321,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -2295,6 +2362,108 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\Desktop\Education\Fall 2016\CS 555\week 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="182">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1337,14 +1337,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1373,7 +1373,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1460,20 +1460,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C12"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.3046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1558,12 +1558,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>52</v>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>44</v>
@@ -1575,12 +1575,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>53</v>
+      <c r="B8" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>121</v>
@@ -1592,7 +1592,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1643,12 +1643,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>57</v>
+      <c r="B12" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>40</v>
@@ -1660,15 +1660,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>137</v>
+      <c r="C13" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
@@ -1677,15 +1677,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>103</v>
+      <c r="B14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
@@ -1694,7 +1694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1873,21 +1873,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1956,22 +1956,22 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2009,7 +2009,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>48</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>52</v>
       </c>
@@ -2129,17 +2129,17 @@
         <v>72</v>
       </c>
       <c r="E7" s="30">
+        <v>10</v>
+      </c>
+      <c r="F7" s="29">
         <v>30</v>
-      </c>
-      <c r="F7" s="29">
-        <v>60</v>
       </c>
       <c r="G7" s="16"/>
       <c r="I7" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>53</v>
       </c>
@@ -2153,17 +2153,17 @@
         <v>72</v>
       </c>
       <c r="E8" s="30">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29">
         <v>30</v>
-      </c>
-      <c r="F8" s="29">
-        <v>60</v>
       </c>
       <c r="G8" s="16"/>
       <c r="I8" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2171,7 +2171,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2179,7 +2179,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2187,7 +2187,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2195,7 +2195,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2203,7 +2203,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2211,7 +2211,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="19"/>
       <c r="C15" s="16"/>
@@ -2220,7 +2220,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2228,7 +2228,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2236,7 +2236,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2244,7 +2244,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2252,7 +2252,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2260,7 +2260,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2268,7 +2268,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2276,7 +2276,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2285,7 +2285,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2294,7 +2294,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2303,7 +2303,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2323,19 +2323,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>92</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>92</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>56</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>57</v>
       </c>
@@ -2438,7 +2438,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="C6" t="s">
         <v>93</v>
       </c>
@@ -2452,7 +2458,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="C7" t="s">
         <v>93</v>
       </c>
@@ -2486,9 +2498,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2536,9 +2548,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2582,21 +2594,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.765625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2623,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2626,7 +2638,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2641,7 +2653,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2656,7 +2668,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2671,7 +2683,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2701,7 +2713,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2728,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2731,7 +2743,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2746,7 +2758,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2761,7 +2773,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -2776,7 +2788,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -2791,7 +2803,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2818,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -2821,7 +2833,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2836,7 +2848,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2851,7 +2863,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2866,7 +2878,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2881,7 +2893,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2896,7 +2908,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -2911,7 +2923,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -2926,7 +2938,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -2941,7 +2953,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -2956,7 +2968,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -2971,7 +2983,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -2983,7 +2995,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -2995,7 +3007,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3007,7 +3019,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3019,7 +3031,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3031,7 +3043,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3055,7 +3067,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3067,7 +3079,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3079,7 +3091,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3091,7 +3103,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3103,7 +3115,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3115,7 +3127,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3127,7 +3139,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3139,7 +3151,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3151,7 +3163,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3163,7 +3175,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3175,7 +3187,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\Project-2git\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="183">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -599,12 +599,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -858,7 +861,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -911,7 +914,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -927,11 +930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122706184"/>
-        <c:axId val="-2099012616"/>
+        <c:axId val="493356272"/>
+        <c:axId val="493357360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2122706184"/>
+        <c:axId val="493356272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,14 +944,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099012616"/>
+        <c:crossAx val="493357360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2099012616"/>
+        <c:axId val="493357360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122706184"/>
+        <c:crossAx val="493356272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,14 +1340,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1367,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1373,7 +1376,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1460,20 +1463,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1877,17 +1880,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1955,23 +1958,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2009,7 +2012,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>48</v>
       </c>
@@ -2028,12 +2031,17 @@
       <c r="F3" s="29">
         <v>60</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="16">
+        <v>100</v>
+      </c>
+      <c r="H3" s="16">
+        <v>60</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
@@ -2052,12 +2060,17 @@
       <c r="F4" s="29">
         <v>60</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16">
+        <v>30</v>
+      </c>
+      <c r="H4" s="16">
+        <v>60</v>
+      </c>
       <c r="I4" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2115,7 +2128,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>52</v>
       </c>
@@ -2134,12 +2147,17 @@
       <c r="F7" s="29">
         <v>30</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16">
+        <v>30</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>53</v>
       </c>
@@ -2158,12 +2176,17 @@
       <c r="F8" s="29">
         <v>30</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>10</v>
+      </c>
+      <c r="H8" s="16">
+        <v>25</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2171,7 +2194,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2179,7 +2202,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2187,7 +2210,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2195,7 +2218,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2203,7 +2226,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2211,7 +2234,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="19"/>
       <c r="C15" s="16"/>
@@ -2220,7 +2243,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2228,7 +2251,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2236,7 +2259,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2244,7 +2267,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2252,7 +2275,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2260,7 +2283,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2268,7 +2291,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2276,7 +2299,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2285,7 +2308,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2294,7 +2317,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2303,7 +2326,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2324,18 +2347,18 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2364,7 +2387,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
@@ -2374,11 +2403,20 @@
       <c r="E2">
         <v>30</v>
       </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
       <c r="I2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
       <c r="C3" t="s">
         <v>92</v>
       </c>
@@ -2388,11 +2426,14 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
       <c r="I3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>56</v>
       </c>
@@ -2415,7 +2456,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>57</v>
       </c>
@@ -2438,7 +2479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2454,11 +2495,14 @@
       <c r="E6">
         <v>30</v>
       </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
       <c r="I6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2473,6 +2517,9 @@
       </c>
       <c r="E7">
         <v>30</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>179</v>
@@ -2498,9 +2545,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2548,9 +2595,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2598,17 +2645,17 @@
       <selection activeCell="A22" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2623,7 +2670,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2638,7 +2685,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2653,7 +2700,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2668,7 +2715,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2683,7 +2730,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2698,7 +2745,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2713,7 +2760,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +2775,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2743,7 +2790,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2758,7 +2805,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2773,7 +2820,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -2788,7 +2835,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -2803,7 +2850,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -2818,7 +2865,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -2833,7 +2880,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2848,7 +2895,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2863,7 +2910,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2878,7 +2925,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2893,7 +2940,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2908,7 +2955,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -2923,7 +2970,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -2938,7 +2985,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -2953,7 +3000,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -2968,7 +3015,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -2983,7 +3030,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -2995,7 +3042,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3007,7 +3054,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3019,7 +3066,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3031,7 +3078,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3043,7 +3090,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3055,7 +3102,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3067,7 +3114,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3079,7 +3126,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3091,7 +3138,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3103,7 +3150,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3115,7 +3162,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3127,7 +3174,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3139,7 +3186,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3151,7 +3198,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3163,7 +3210,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3175,7 +3222,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3187,7 +3234,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -930,11 +930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493356272"/>
-        <c:axId val="493357360"/>
+        <c:axId val="-759668624"/>
+        <c:axId val="-759668080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493356272"/>
+        <c:axId val="-759668624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,14 +944,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493357360"/>
+        <c:crossAx val="-759668080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493357360"/>
+        <c:axId val="-759668080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493356272"/>
+        <c:crossAx val="-759668624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1507,7 @@
         <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,7 +1524,7 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1603,7 +1603,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
@@ -1619,8 +1619,8 @@
       <c r="B10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>99</v>
+      <c r="C10" s="31" t="s">
+        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>92</v>
@@ -2346,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\Project-2git\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -914,7 +914,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -1340,14 +1340,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1376,7 +1376,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1463,20 +1463,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1880,17 +1880,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1958,23 +1958,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2012,7 +2012,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>48</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2128,9 +2128,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>52</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>44</v>
@@ -2157,9 +2157,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>53</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>121</v>
@@ -2186,7 +2186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2194,7 +2194,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2202,7 +2202,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2210,7 +2210,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2218,7 +2218,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2226,7 +2226,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2234,7 +2234,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="19"/>
       <c r="C15" s="16"/>
@@ -2243,7 +2243,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2251,7 +2251,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2259,7 +2259,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2267,7 +2267,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2275,7 +2275,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2283,7 +2283,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2291,7 +2291,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2299,7 +2299,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2308,7 +2308,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2317,7 +2317,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2326,7 +2326,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2350,15 +2350,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>56</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>57</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2545,9 +2545,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2595,9 +2595,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2645,17 +2645,17 @@
       <selection activeCell="A22" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -602,6 +602,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Have multiple sprint meetings</t>
+  </si>
+  <si>
+    <t>procrastination</t>
+  </si>
+  <si>
+    <t>Independently work on User stories</t>
   </si>
 </sst>
 </file>
@@ -736,7 +754,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -787,6 +805,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1958,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2204,7 +2228,9 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="33" t="s">
+        <v>183</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2212,7 +2238,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -2220,23 +2246,29 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="33" t="s">
+        <v>184</v>
+      </c>
       <c r="C13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="32" t="s">
+        <v>188</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2253,7 +2285,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -2261,7 +2295,9 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="C18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="190">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>Independently work on User stories</t>
+  </si>
+  <si>
+    <t>use GitHub efficiently</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1986,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2277,7 +2280,9 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1364,14 +1364,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1400,7 +1400,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1487,20 +1487,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1517,12 +1517,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>48</v>
+      <c r="B3" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>38</v>
@@ -1534,12 +1534,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>49</v>
+      <c r="B4" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>37</v>
@@ -1551,12 +1551,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>50</v>
+      <c r="B5" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>74</v>
@@ -1568,11 +1568,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -1585,7 +1585,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1619,12 +1619,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>54</v>
+      <c r="B9" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>116</v>
@@ -1636,12 +1636,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>55</v>
+      <c r="B10" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>124</v>
@@ -1653,12 +1653,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>73</v>
@@ -1670,12 +1670,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>40</v>
@@ -1687,7 +1687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1721,11 +1721,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -1735,7 +1735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1904,17 +1904,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1983,22 +1983,22 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2036,9 +2036,9 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>48</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>38</v>
@@ -2065,9 +2065,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>49</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>37</v>
@@ -2094,8 +2094,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -2123,7 +2123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2218,7 +2218,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2226,7 +2226,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2236,7 +2236,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2244,7 +2244,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2254,7 +2254,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2264,7 +2264,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2275,7 +2275,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2283,7 +2283,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2293,7 +2293,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2303,7 +2303,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2311,7 +2311,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2319,7 +2319,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2327,7 +2327,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2335,7 +2335,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2344,7 +2344,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2353,7 +2353,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2362,7 +2362,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2383,18 +2383,18 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2469,9 +2469,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>73</v>
@@ -2492,9 +2492,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>57</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>40</v>
@@ -2515,7 +2515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>58</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2581,9 +2581,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2631,9 +2631,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2677,21 +2677,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>74</v>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\AppData\Local\Temp\Rar$DIa0.190\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>113</v>
@@ -1739,8 +1739,8 @@
       <c r="A16" s="23">
         <v>3</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>61</v>
+      <c r="B16" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>107</v>
@@ -1767,8 +1767,8 @@
       <c r="A18" s="23">
         <v>3</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>63</v>
+      <c r="B18" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>43</v>
@@ -1781,8 +1781,8 @@
       <c r="A19" s="23">
         <v>3</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>64</v>
+      <c r="B19" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>109</v>
@@ -1795,8 +1795,8 @@
       <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>65</v>
+      <c r="B20" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>111</v>
@@ -1809,8 +1809,8 @@
       <c r="A21" s="23">
         <v>4</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>66</v>
+      <c r="B21" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>115</v>
@@ -1823,8 +1823,8 @@
       <c r="A22" s="23">
         <v>4</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>67</v>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>117</v>
@@ -1837,11 +1837,11 @@
       <c r="A23" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>44</v>
+      <c r="B23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
@@ -1851,8 +1851,8 @@
       <c r="A24" s="23">
         <v>4</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>69</v>
+      <c r="B24" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>46</v>
@@ -1865,8 +1865,8 @@
       <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>70</v>
+      <c r="B25" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>137</v>
@@ -1879,8 +1879,8 @@
       <c r="A26" s="23">
         <v>4</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>71</v>
+      <c r="B26" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>144</v>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1956,13 +1956,13 @@
         <v>6</v>
       </c>
       <c r="D3">
+        <v>179</v>
+      </c>
+      <c r="E3">
         <v>250</v>
       </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
       <c r="F3" s="9">
-        <v>130</v>
+        <v>0.71199999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J23" sqref="J20:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\AppData\Local\Temp\Rar$DIa0.190\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1838,10 +1838,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
@@ -1900,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2383,13 +2383,13 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="28.3046875" customWidth="1"/>
     <col min="3" max="3" width="7.23046875" customWidth="1"/>
     <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
@@ -2428,7 +2428,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -2451,7 +2451,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -2520,7 +2520,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1364,14 +1364,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1400,7 +1400,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1487,20 +1487,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1904,17 +1904,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1986,19 +1986,19 @@
       <selection activeCell="J23" sqref="J20:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2036,7 +2036,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2218,7 +2218,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2226,7 +2226,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2236,7 +2236,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2244,7 +2244,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2254,7 +2254,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2264,7 +2264,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2275,7 +2275,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2283,7 +2283,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2293,7 +2293,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2303,7 +2303,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2311,7 +2311,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2319,7 +2319,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2327,7 +2327,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2335,7 +2335,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2344,7 +2344,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2353,7 +2353,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2362,7 +2362,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2382,19 +2382,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.3046875" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2515,12 +2515,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>58</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
@@ -2538,7 +2538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2581,9 +2581,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2631,9 +2631,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2677,21 +2677,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1701,7 +1701,7 @@
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2526,16 +2526,19 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>100</v>
+      <c r="G6">
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2549,16 +2552,19 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>100</v>
+      <c r="G7">
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -933,6 +933,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,14 +1367,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1400,7 +1403,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1487,20 +1490,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1898,23 +1901,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1963,6 +1966,14 @@
       </c>
       <c r="F3" s="9">
         <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1986,19 +1997,19 @@
       <selection activeCell="J23" sqref="J20:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2036,7 +2047,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2065,7 +2076,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2123,7 +2134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2218,7 +2229,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2226,7 +2237,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2236,7 +2247,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2244,7 +2255,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2254,7 +2265,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2264,7 +2275,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2275,7 +2286,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2283,7 +2294,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2293,7 +2304,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2303,7 +2314,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2311,7 +2322,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2319,7 +2330,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2327,7 +2338,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2335,7 +2346,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2344,7 +2355,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2353,7 +2364,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2362,7 +2373,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2382,19 +2393,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.23046875" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2446,7 +2457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2480,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2488,11 +2499,17 @@
       <c r="F4">
         <v>60</v>
       </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
       <c r="I4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2511,11 +2528,17 @@
       <c r="F5">
         <v>60</v>
       </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
       <c r="I5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2541,7 +2564,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2581,15 +2604,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.765625" customWidth="1"/>
+    <col min="2" max="2" width="27.69140625" customWidth="1"/>
+    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2616,6 +2644,52 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2637,9 +2711,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2687,17 +2761,17 @@
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2712,7 +2786,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2727,7 +2801,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2742,7 +2816,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2757,7 +2831,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2772,7 +2846,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2787,7 +2861,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2802,7 +2876,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2891,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2832,7 +2906,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2847,7 +2921,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2862,7 +2936,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -2877,7 +2951,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -2892,7 +2966,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -2907,7 +2981,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -2922,7 +2996,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2937,7 +3011,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2952,7 +3026,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2967,7 +3041,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2982,7 +3056,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2997,7 +3071,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3012,7 +3086,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3027,7 +3101,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3042,7 +3116,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3057,7 +3131,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3072,7 +3146,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3084,7 +3158,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3096,7 +3170,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3108,7 +3182,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3120,7 +3194,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3132,7 +3206,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3144,7 +3218,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3156,7 +3230,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3168,7 +3242,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3180,7 +3254,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3192,7 +3266,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3204,7 +3278,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3216,7 +3290,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3228,7 +3302,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3240,7 +3314,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3252,7 +3326,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3264,7 +3338,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3276,7 +3350,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\Project-2git\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="189">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -941,7 +941,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -957,11 +957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-759668624"/>
-        <c:axId val="-759668080"/>
+        <c:axId val="-314567072"/>
+        <c:axId val="-314566528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-759668624"/>
+        <c:axId val="-314567072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,14 +971,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-759668080"/>
+        <c:crossAx val="-314566528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-759668080"/>
+        <c:axId val="-314566528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-759668624"/>
+        <c:crossAx val="-314567072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D18"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1636,7 @@
         <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2393,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2445,7 +2445,7 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -2453,8 +2453,14 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2468,7 +2474,7 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -2476,8 +2482,14 @@
       <c r="F3">
         <v>100</v>
       </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2491,7 +2503,7 @@
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -2520,7 +2532,7 @@
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2606,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2644,6 +2656,52 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2757,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\Project-2git\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="192">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -620,12 +620,21 @@
   </si>
   <si>
     <t>Independently work on User stories</t>
+  </si>
+  <si>
+    <t>Refactoring of code</t>
+  </si>
+  <si>
+    <t>Clumsy coding</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -885,7 +894,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -941,7 +950,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -1367,14 +1376,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1403,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1403,7 +1412,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1494,16 +1503,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1822,7 +1831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1907,17 +1916,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>12</v>
       </c>
@@ -1994,22 +2003,22 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J23" sqref="J20:U23"/>
+      <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2047,7 +2056,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2229,7 +2238,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2237,7 +2246,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2247,7 +2256,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2255,7 +2264,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2265,7 +2274,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2275,7 +2284,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2286,7 +2295,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2294,7 +2303,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2304,7 +2313,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2314,7 +2323,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2322,7 +2331,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2330,7 +2339,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2338,7 +2347,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2346,7 +2355,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2355,7 +2364,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2364,7 +2373,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2373,7 +2382,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2391,21 +2400,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.23046875" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2521,7 +2530,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2600,6 +2609,44 @@
       </c>
       <c r="I7" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="32" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2616,20 +2663,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.765625" customWidth="1"/>
-    <col min="2" max="2" width="27.69140625" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2658,7 +2705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2681,7 +2728,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2704,7 +2751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2727,7 +2774,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -2749,6 +2796,62 @@
       <c r="I5" t="s">
         <v>179</v>
       </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2763,15 +2866,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2798,6 +2904,46 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2815,21 +2961,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -2844,7 +2990,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -2859,7 +3005,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -2874,7 +3020,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -2889,7 +3035,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2904,7 +3050,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2919,7 +3065,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -2934,7 +3080,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +3095,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -2964,7 +3110,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -2979,7 +3125,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -2994,7 +3140,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3009,7 +3155,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3024,7 +3170,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3039,7 +3185,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3054,7 +3200,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3069,7 +3215,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3084,7 +3230,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3099,7 +3245,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3114,7 +3260,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3129,7 +3275,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3144,7 +3290,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3159,7 +3305,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3174,7 +3320,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3189,7 +3335,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3204,7 +3350,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3216,7 +3362,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3228,7 +3374,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3240,7 +3386,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3252,7 +3398,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3264,7 +3410,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3276,7 +3422,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3288,7 +3434,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3300,7 +3446,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3312,7 +3458,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3324,7 +3470,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3336,7 +3482,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3348,7 +3494,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3360,7 +3506,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3372,7 +3518,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3384,7 +3530,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3396,7 +3542,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3408,7 +3554,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="192">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1703,8 +1703,8 @@
       <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>58</v>
+      <c r="B13" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>39</v>
@@ -1729,9 +1729,6 @@
       <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -1793,11 +1790,11 @@
       <c r="A19" s="23">
         <v>3</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>109</v>
+      <c r="B19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>93</v>
@@ -1807,11 +1804,11 @@
       <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>111</v>
+      <c r="B20" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="D20" t="s">
         <v>93</v>
@@ -1877,11 +1874,11 @@
       <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>137</v>
+      <c r="B25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>93</v>
@@ -1891,10 +1888,10 @@
       <c r="A26" s="23">
         <v>4</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="16" t="s">
         <v>144</v>
       </c>
       <c r="D26" t="s">
@@ -2402,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2581,6 +2578,9 @@
       <c r="G6">
         <v>15</v>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
       <c r="I6" t="s">
         <v>182</v>
       </c>
@@ -2605,6 +2605,9 @@
         <v>30</v>
       </c>
       <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
       <c r="I7" t="s">
@@ -2665,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2869,7 +2872,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -928,6 +928,9 @@
                 <c:pt idx="1">
                   <c:v>41183</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>41200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1032,7 +1035,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1909,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1953,6 +1962,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1975,11 +1987,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>41200</v>
+      </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
         <v>6</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="9">
+        <f>100/200</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6456" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="194">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -629,12 +629,18 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>Sibling Spacing</t>
+  </si>
+  <si>
+    <t>List Living Single</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -894,7 +900,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -953,7 +959,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -969,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-314567072"/>
-        <c:axId val="-314566528"/>
+        <c:axId val="-1689363056"/>
+        <c:axId val="-1689361968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-314567072"/>
+        <c:axId val="-1689363056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,14 +989,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-314566528"/>
+        <c:crossAx val="-1689361968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-314566528"/>
+        <c:axId val="-1689361968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-314567072"/>
+        <c:crossAx val="-1689363056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,7 +1044,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,18 +1387,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1418,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1421,7 +1427,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1508,20 +1514,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1752,22 +1758,28 @@
       <c r="D15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="D16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1823,7 +1835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1918,21 +1930,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2028,19 +2040,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2078,7 +2090,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2136,7 +2148,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2223,7 +2235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2260,7 +2272,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2268,7 +2280,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2278,7 +2290,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2286,7 +2298,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2296,7 +2308,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2306,7 +2318,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2317,7 +2329,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2325,7 +2337,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2335,7 +2347,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2345,7 +2357,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2353,7 +2365,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2361,7 +2373,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2369,7 +2381,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2377,7 +2389,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2386,7 +2398,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2395,7 +2407,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2404,7 +2416,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2428,15 +2440,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.23046875" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2581,7 +2593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2639,40 +2651,40 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>190</v>
       </c>
@@ -2694,17 +2706,17 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="27.69140625" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -2752,11 +2764,17 @@
       <c r="F2">
         <v>30</v>
       </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
       <c r="I2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -2775,11 +2793,17 @@
       <c r="F3">
         <v>30</v>
       </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
       <c r="I3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2802,7 +2826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -2825,7 +2849,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2848,7 +2872,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2871,12 +2895,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
@@ -2896,16 +2920,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2934,7 +2958,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -2954,7 +3018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -2989,21 +3053,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3018,7 +3082,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3033,7 +3097,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3048,7 +3112,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3063,7 +3127,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3078,7 +3142,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3093,7 +3157,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3108,7 +3172,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3123,7 +3187,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3138,7 +3202,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3153,7 +3217,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3168,7 +3232,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3183,7 +3247,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3198,7 +3262,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3213,7 +3277,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3228,7 +3292,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3243,7 +3307,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3258,7 +3322,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3273,7 +3337,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3288,7 +3352,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3303,7 +3367,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3318,7 +3382,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3333,7 +3397,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3348,7 +3412,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3363,7 +3427,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3378,7 +3442,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3390,7 +3454,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3402,7 +3466,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3414,7 +3478,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3426,7 +3490,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3438,7 +3502,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3450,7 +3514,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3462,7 +3526,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3474,7 +3538,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3486,7 +3550,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3498,7 +3562,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3510,7 +3574,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3522,7 +3586,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3534,7 +3598,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3546,7 +3610,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3558,7 +3622,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3570,7 +3634,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3582,7 +3646,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -959,7 +959,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -1044,7 +1044,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,18 +1387,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1427,7 +1427,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1514,20 +1514,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1934,17 +1934,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2040,19 +2040,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2090,7 +2090,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2272,7 +2272,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2280,7 +2280,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2290,7 +2290,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2298,7 +2298,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2308,7 +2308,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2318,7 +2318,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2329,7 +2329,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2337,7 +2337,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2347,7 +2347,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2357,7 +2357,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2365,7 +2365,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2373,7 +2373,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2381,7 +2381,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2389,7 +2389,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2398,7 +2398,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2407,7 +2407,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2416,7 +2416,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2437,18 +2437,18 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.23046875" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2651,40 +2651,40 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>190</v>
       </c>
@@ -2705,18 +2705,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="27.69140625" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2868,11 +2868,17 @@
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
       <c r="I6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2895,12 +2901,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
@@ -2920,16 +2926,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3053,21 +3059,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3082,7 +3088,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3097,7 +3103,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3112,7 +3118,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3127,7 +3133,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3142,7 +3148,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3157,7 +3163,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3172,7 +3178,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3187,7 +3193,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3202,7 +3208,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3217,7 +3223,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3232,7 +3238,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3247,7 +3253,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3262,7 +3268,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3277,7 +3283,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3292,7 +3298,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3307,7 +3313,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3322,7 +3328,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3337,7 +3343,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3352,7 +3358,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3367,7 +3373,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3382,7 +3388,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3397,7 +3403,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3412,7 +3418,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3427,7 +3433,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3442,7 +3448,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3454,7 +3460,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3466,7 +3472,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3478,7 +3484,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3490,7 +3496,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3502,7 +3508,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3514,7 +3520,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3526,7 +3532,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3538,7 +3544,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3550,7 +3556,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3562,7 +3568,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3574,7 +3580,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3586,7 +3592,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3598,7 +3604,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3622,7 +3628,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3634,7 +3640,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3646,7 +3652,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -634,13 +634,13 @@
     <t>Sibling Spacing</t>
   </si>
   <si>
-    <t>List Living Single</t>
+    <t>List Recent Births</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -959,7 +959,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -975,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1689363056"/>
-        <c:axId val="-1689361968"/>
+        <c:axId val="520102352"/>
+        <c:axId val="520108336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1689363056"/>
+        <c:axId val="520102352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,14 +989,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1689361968"/>
+        <c:crossAx val="520108336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1689361968"/>
+        <c:axId val="520108336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1689363056"/>
+        <c:crossAx val="520102352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1044,7 +1044,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,14 +1391,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1427,7 +1427,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1518,16 +1518,16 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1934,17 +1934,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2040,19 +2040,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2090,7 +2090,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2272,7 +2272,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2280,7 +2280,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2290,7 +2290,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2298,7 +2298,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2308,7 +2308,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2318,7 +2318,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2329,7 +2329,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2337,7 +2337,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2347,7 +2347,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2357,7 +2357,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2365,7 +2365,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2373,7 +2373,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2381,7 +2381,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2389,7 +2389,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2398,7 +2398,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2407,7 +2407,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2416,7 +2416,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2440,15 +2440,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.23046875" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2651,40 +2651,40 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>190</v>
       </c>
@@ -2705,18 +2705,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="27.69140625" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2901,12 +2901,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
@@ -2926,16 +2926,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3059,21 +3059,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="194">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -959,7 +959,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -1044,7 +1044,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,14 +1391,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1427,7 +1427,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1514,20 +1514,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1744,8 +1744,11 @@
       <c r="D14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1820,8 +1823,11 @@
       <c r="D19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1834,8 +1840,11 @@
       <c r="D20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1863,7 +1872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1934,17 +1943,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2040,19 +2049,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2090,7 +2099,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2264,7 +2273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2272,7 +2281,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2280,7 +2289,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>183</v>
@@ -2290,7 +2299,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2298,7 +2307,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>184</v>
@@ -2308,7 +2317,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>188</v>
@@ -2318,7 +2327,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>186</v>
@@ -2329,7 +2338,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2337,7 +2346,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>185</v>
@@ -2347,7 +2356,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>187</v>
@@ -2357,7 +2366,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2365,7 +2374,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2373,7 +2382,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2381,7 +2390,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2389,7 +2398,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2398,7 +2407,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2407,7 +2416,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2416,7 +2425,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2440,15 +2449,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.23046875" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2651,40 +2660,40 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>190</v>
       </c>
@@ -2706,17 +2715,17 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="27.69140625" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2878,7 +2887,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2897,16 +2906,22 @@
       <c r="F7">
         <v>30</v>
       </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
       <c r="I7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="18"/>
@@ -2926,16 +2941,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2964,7 +2979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2984,7 +2999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -3004,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3024,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3060,20 +3075,20 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3088,7 +3103,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3103,7 +3118,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3118,7 +3133,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3133,7 +3148,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3148,7 +3163,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3163,7 +3178,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3178,7 +3193,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3193,7 +3208,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3208,7 +3223,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3223,7 +3238,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3238,7 +3253,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3253,7 +3268,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3268,7 +3283,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3283,7 +3298,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3298,7 +3313,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3313,7 +3328,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3328,7 +3343,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3343,7 +3358,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3358,7 +3373,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3373,7 +3388,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3388,7 +3403,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3403,7 +3418,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3418,7 +3433,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3433,7 +3448,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3463,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3460,7 +3475,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3472,7 +3487,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3484,7 +3499,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3496,7 +3511,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3508,7 +3523,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3520,7 +3535,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3532,7 +3547,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3544,7 +3559,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3556,7 +3571,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3568,7 +3583,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3580,7 +3595,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3592,7 +3607,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3604,7 +3619,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3616,7 +3631,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3628,7 +3643,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3640,7 +3655,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3652,7 +3667,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="195">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -592,9 +592,6 @@
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -635,6 +632,12 @@
   </si>
   <si>
     <t>List Recent Births</t>
+  </si>
+  <si>
+    <t>List Recent Deaths</t>
+  </si>
+  <si>
+    <t>coding</t>
   </si>
 </sst>
 </file>
@@ -937,6 +940,9 @@
                 <c:pt idx="2">
                   <c:v>41200</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>41207</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -954,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,14 +1400,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1427,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1427,7 +1436,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1514,20 +1523,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1558,10 +1567,10 @@
         <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1575,10 +1584,10 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1592,10 +1601,10 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1609,10 +1618,10 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1626,10 +1635,10 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1643,10 +1652,10 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1660,10 +1669,10 @@
         <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1677,10 +1686,10 @@
         <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1694,10 +1703,10 @@
         <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1711,10 +1720,10 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1728,10 +1737,10 @@
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1745,10 +1754,10 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1762,10 +1771,10 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1779,10 +1788,10 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1795,22 +1804,28 @@
       <c r="D17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1824,10 +1839,10 @@
         <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1841,66 +1856,66 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>115</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="D21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>117</v>
+        <v>155</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="D22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>46</v>
+        <v>158</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="D24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1937,23 +1952,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -1987,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2026,6 +2041,26 @@
       <c r="F4" s="9">
         <f>100/200</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>41207</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>93</v>
+      </c>
+      <c r="E5">
+        <v>125</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2045,23 +2080,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2099,7 +2134,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2125,10 +2160,10 @@
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2154,10 +2189,10 @@
         <v>60</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2183,10 +2218,10 @@
         <v>60</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2212,10 +2247,10 @@
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2241,10 +2276,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2270,10 +2305,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2281,7 +2316,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2289,17 +2324,17 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2307,30 +2342,30 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="16"/>
       <c r="E15" s="16"/>
@@ -2338,7 +2373,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2346,27 +2381,27 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2374,7 +2409,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2382,7 +2417,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2390,7 +2425,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2398,7 +2433,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2407,7 +2442,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2416,7 +2451,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2425,7 +2460,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2446,18 +2481,18 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.23046875" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2486,7 +2521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2497,7 +2532,7 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -2512,10 +2547,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2526,7 +2561,7 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -2541,10 +2576,10 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2555,7 +2590,7 @@
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -2570,10 +2605,10 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2619,7 @@
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2599,10 +2634,10 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -2628,10 +2663,10 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -2657,45 +2692,45 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2712,20 +2747,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="27.69140625" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2754,7 +2789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2765,7 +2800,7 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -2780,10 +2815,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2794,7 +2829,7 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -2809,10 +2844,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2823,7 +2858,7 @@
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -2831,22 +2866,28 @@
       <c r="F4">
         <v>30</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
       <c r="I4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>43</v>
+        <v>152</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2854,11 +2895,17 @@
       <c r="F5">
         <v>30</v>
       </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
       <c r="I5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2869,7 +2916,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2884,10 +2931,10 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2898,7 +2945,7 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2913,18 +2960,53 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="33" t="s">
+        <v>182</v>
+      </c>
       <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2942,15 +3024,15 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2979,12 +3061,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -2999,12 +3081,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -3019,7 +3101,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3030,7 +3152,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -3039,7 +3161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3050,7 +3172,7 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3074,21 +3196,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3103,7 +3225,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +3240,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3133,7 +3255,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3148,7 +3270,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +3285,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3178,7 +3300,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3193,7 +3315,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3208,7 +3330,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3223,7 +3345,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3238,7 +3360,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3253,7 +3375,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3268,7 +3390,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3405,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3298,7 +3420,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3313,7 +3435,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3328,7 +3450,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3343,7 +3465,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3358,7 +3480,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3373,7 +3495,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3388,7 +3510,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3403,7 +3525,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3418,7 +3540,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3433,7 +3555,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3448,7 +3570,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3463,7 +3585,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3475,7 +3597,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3487,7 +3609,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3499,7 +3621,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3511,7 +3633,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3523,7 +3645,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3535,7 +3657,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3547,7 +3669,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3559,7 +3681,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3571,7 +3693,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3583,7 +3705,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3595,7 +3717,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3607,7 +3729,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3619,7 +3741,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3631,7 +3753,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3643,7 +3765,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3655,7 +3777,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3667,7 +3789,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40440</c:v>
+                  <c:v>41171</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41183</c:v>
@@ -1400,14 +1400,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1436,7 +1436,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1527,16 +1527,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1954,21 +1954,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1988,9 +1988,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>40440</v>
+        <v>41171</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>41207</v>
       </c>
@@ -2080,23 +2080,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2134,7 +2134,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2316,7 +2316,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2324,7 +2324,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>182</v>
@@ -2334,7 +2334,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2342,7 +2342,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>183</v>
@@ -2352,7 +2352,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>187</v>
@@ -2362,7 +2362,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>185</v>
@@ -2373,7 +2373,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2381,7 +2381,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>184</v>
@@ -2391,7 +2391,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>186</v>
@@ -2401,7 +2401,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2409,7 +2409,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2417,7 +2417,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2425,7 +2425,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2433,7 +2433,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2442,7 +2442,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2451,7 +2451,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2460,7 +2460,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2484,15 +2484,15 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.23046875" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2695,40 +2695,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>189</v>
       </c>
@@ -2753,14 +2753,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="27.69140625" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>152</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2963,47 +2963,47 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="33" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>189</v>
       </c>
@@ -3027,12 +3027,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3200,17 +3200,17 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="195">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -903,7 +903,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -968,7 +968,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -984,11 +984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520102352"/>
-        <c:axId val="520108336"/>
+        <c:axId val="1028026256"/>
+        <c:axId val="1028035504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520102352"/>
+        <c:axId val="1028026256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,14 +998,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520108336"/>
+        <c:crossAx val="1028035504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520108336"/>
+        <c:axId val="1028035504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520102352"/>
+        <c:crossAx val="1028026256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,14 +1400,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="2" width="6.3828125" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1436,7 +1436,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1523,20 +1523,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="C23:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1872,8 +1872,11 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1886,8 +1889,11 @@
       <c r="D22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1954,21 +1960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>41207</v>
       </c>
@@ -2084,19 +2090,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2134,7 +2140,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2316,7 +2322,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2324,7 +2330,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>182</v>
@@ -2334,7 +2340,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2342,7 +2348,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>183</v>
@@ -2352,7 +2358,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>187</v>
@@ -2362,7 +2368,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>185</v>
@@ -2373,7 +2379,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2381,7 +2387,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>184</v>
@@ -2391,7 +2397,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>186</v>
@@ -2401,7 +2407,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2409,7 +2415,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2417,7 +2423,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2425,7 +2431,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2433,7 +2439,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2442,7 +2448,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2451,7 +2457,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2460,7 +2466,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2484,15 +2490,15 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.23046875" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2695,40 +2701,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>189</v>
       </c>
@@ -2749,18 +2755,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="27.69140625" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>152</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2963,47 +2969,47 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="33" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>189</v>
       </c>
@@ -3024,15 +3030,15 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>35</v>
@@ -3080,8 +3086,17 @@
       <c r="F2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -3092,7 +3107,7 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>35</v>
@@ -3100,8 +3115,17 @@
       <c r="F3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3121,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3141,7 +3165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3161,7 +3185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3200,17 +3224,17 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3225,7 +3249,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3240,7 +3264,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3255,7 +3279,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3270,7 +3294,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3285,7 +3309,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3300,7 +3324,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3315,7 +3339,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3330,7 +3354,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3345,7 +3369,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3360,7 +3384,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3375,7 +3399,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3390,7 +3414,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3405,7 +3429,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3420,7 +3444,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3435,7 +3459,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3450,7 +3474,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3465,7 +3489,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3504,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3495,7 +3519,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3510,7 +3534,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3525,7 +3549,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3540,7 +3564,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3555,7 +3579,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3570,7 +3594,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3585,7 +3609,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3597,7 +3621,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3609,7 +3633,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3621,7 +3645,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3633,7 +3657,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3645,7 +3669,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3657,7 +3681,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3669,7 +3693,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3681,7 +3705,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3693,7 +3717,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3705,7 +3729,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3717,7 +3741,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3729,7 +3753,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3741,7 +3765,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3753,7 +3777,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3765,7 +3789,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3777,7 +3801,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3789,7 +3813,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhsz\Desktop\agile\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="197">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,9 +625,6 @@
     <t>Clumsy coding</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Sibling Spacing</t>
   </si>
   <si>
@@ -638,12 +635,21 @@
   </si>
   <si>
     <t>coding</t>
+  </si>
+  <si>
+    <t>Continue using Github for code integration</t>
+  </si>
+  <si>
+    <t>Breaking others code while coding</t>
+  </si>
+  <si>
+    <t>making modifications to others data in gedcom file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -903,7 +909,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -968,7 +974,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FEE-4AA3-BA3D-60C5E2EDE32B}"/>
             </c:ext>
@@ -1053,7 +1059,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,14 +1406,15 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.53515625" customWidth="1"/>
-    <col min="4" max="5" width="20.53515625" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1434,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1436,7 +1443,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1470,7 +1477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1523,20 +1530,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="C23:D24"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="46.23046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1587,7 +1594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1638,7 +1645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1706,7 +1713,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1757,7 +1764,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1791,7 +1798,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1842,7 +1849,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1859,7 +1866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1867,7 +1874,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
         <v>92</v>
@@ -1876,7 +1883,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>155</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
         <v>92</v>
@@ -1893,7 +1900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1934,8 +1941,11 @@
       <c r="D25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1947,6 +1957,9 @@
       </c>
       <c r="D26" t="s">
         <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1961,20 +1974,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.53515625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="2"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2008,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2049,7 +2062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>41207</v>
       </c>
@@ -2090,19 +2103,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="10.69140625" style="6"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2140,7 +2153,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2198,7 +2211,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2227,7 +2240,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2256,7 +2269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2285,7 +2298,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2314,7 +2327,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2322,7 +2335,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2330,7 +2343,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>182</v>
@@ -2340,7 +2353,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2348,7 +2361,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>183</v>
@@ -2358,7 +2371,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>187</v>
@@ -2368,7 +2381,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>185</v>
@@ -2379,7 +2392,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2387,7 +2400,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>184</v>
@@ -2397,7 +2410,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>186</v>
@@ -2407,7 +2420,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2415,7 +2428,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2423,7 +2436,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2431,7 +2444,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2439,7 +2452,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2448,7 +2461,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2457,7 +2470,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2466,7 +2479,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2487,18 +2500,18 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.23046875" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
-    <col min="4" max="4" width="7.4609375" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2556,7 +2569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2585,7 +2598,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2614,7 +2627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2643,7 +2656,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2701,40 +2714,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>189</v>
       </c>
@@ -2753,20 +2766,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="27.69140625" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2824,7 +2838,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2853,7 +2867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2882,7 +2896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>152</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2940,7 +2954,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2969,49 +2983,74 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="33" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="D11" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>189</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3030,15 +3069,15 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3067,12 +3106,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -3096,12 +3135,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -3125,7 +3164,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3145,18 +3184,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -3165,7 +3204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3176,7 +3215,7 @@
         <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -3184,8 +3223,17 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3196,13 +3244,22 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c r="F7">
         <v>30</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3220,21 +3277,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="105.4609375" customWidth="1"/>
-    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.921875" customWidth="1"/>
-    <col min="7" max="7" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3249,7 +3306,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3264,7 +3321,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3279,7 +3336,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3294,7 +3351,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3309,7 +3366,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3324,7 +3381,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3339,7 +3396,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3354,7 +3411,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3369,7 +3426,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3384,7 +3441,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3399,7 +3456,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3414,7 +3471,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3429,7 +3486,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3444,7 +3501,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3459,7 +3516,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3474,7 +3531,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3489,7 +3546,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3504,7 +3561,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3519,7 +3576,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3534,7 +3591,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3549,7 +3606,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3564,7 +3621,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3579,7 +3636,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3594,7 +3651,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3609,7 +3666,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3621,7 +3678,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3633,7 +3690,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3645,7 +3702,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3657,7 +3714,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3669,7 +3726,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3681,7 +3738,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3693,7 +3750,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3705,7 +3762,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3717,7 +3774,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3729,7 +3786,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3741,7 +3798,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3753,7 +3810,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3765,7 +3822,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3777,7 +3834,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3789,7 +3846,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3801,7 +3858,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3813,7 +3870,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub-Work\DPS-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkama\OneDrive\Documents\GitHub\DPS-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6456" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="197">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -634,9 +634,6 @@
     <t>List Recent Deaths</t>
   </si>
   <si>
-    <t>coding</t>
-  </si>
-  <si>
     <t>Continue using Github for code integration</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>making modifications to others data in gedcom file</t>
+  </si>
+  <si>
+    <t>Avoid breaking others code and cross check the User stories</t>
   </si>
 </sst>
 </file>
@@ -949,6 +949,9 @@
                 <c:pt idx="3">
                   <c:v>41207</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>41223</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -969,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,15 +1412,15 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" customWidth="1"/>
+    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1440,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -1443,7 +1449,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
   </sheetData>
@@ -1530,20 +1536,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="46.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.15234375" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="46.23046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>3</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>3</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>3</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>3</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>4</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>4</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>4</v>
       </c>
@@ -1913,8 +1919,11 @@
       <c r="D23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>4</v>
       </c>
@@ -1927,8 +1936,11 @@
       <c r="D24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>4</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>4</v>
       </c>
@@ -1971,23 +1983,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="2"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>41183</v>
       </c>
@@ -2041,7 +2053,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41200</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>41207</v>
       </c>
@@ -2080,6 +2092,26 @@
       </c>
       <c r="F5" s="9">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>41223</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -2103,19 +2135,19 @@
       <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="6"/>
+    <col min="7" max="7" width="6.69140625" customWidth="1"/>
+    <col min="8" max="8" width="7.69140625" customWidth="1"/>
+    <col min="9" max="9" width="10.69140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2144,7 +2176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2153,7 +2185,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -2182,7 +2214,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -2211,7 +2243,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -2240,7 +2272,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
@@ -2269,7 +2301,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -2298,7 +2330,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2327,7 +2359,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
@@ -2335,7 +2367,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -2343,7 +2375,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>182</v>
@@ -2353,7 +2385,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="16"/>
@@ -2361,7 +2393,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>183</v>
@@ -2371,7 +2403,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="32" t="s">
         <v>187</v>
@@ -2381,7 +2413,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="32" t="s">
         <v>185</v>
@@ -2392,7 +2424,7 @@
       <c r="G15" s="16"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
@@ -2400,7 +2432,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>184</v>
@@ -2410,7 +2442,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="32" t="s">
         <v>186</v>
@@ -2420,7 +2452,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2428,7 +2460,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2436,7 +2468,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -2444,7 +2476,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -2452,7 +2484,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2461,7 +2493,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2470,7 +2502,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2479,7 +2511,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2503,15 +2535,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="28.23046875" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2569,7 +2601,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2598,7 +2630,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2627,7 +2659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2656,7 +2688,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -2685,7 +2717,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
@@ -2714,40 +2746,40 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>189</v>
       </c>
@@ -2768,19 +2800,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="27.69140625" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" customWidth="1"/>
+    <col min="4" max="4" width="34.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +2841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2838,7 +2870,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2867,7 +2899,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2896,7 +2928,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>152</v>
       </c>
@@ -2925,7 +2957,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -2954,7 +2986,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>133</v>
       </c>
@@ -2983,75 +3015,54 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="25.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
-        <v>196</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3066,18 +3077,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -3164,7 +3175,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3183,8 +3194,17 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3195,7 +3215,7 @@
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -3203,8 +3223,17 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -3233,7 +3262,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
@@ -3261,6 +3290,45 @@
       <c r="I7" t="s">
         <v>181</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3277,21 +3345,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.921875" customWidth="1"/>
+    <col min="3" max="3" width="105.4609375" customWidth="1"/>
+    <col min="4" max="4" width="71.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" customWidth="1"/>
+    <col min="7" max="7" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3306,7 +3374,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
@@ -3321,7 +3389,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
@@ -3336,7 +3404,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
@@ -3351,7 +3419,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
@@ -3366,7 +3434,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -3381,7 +3449,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -3396,7 +3464,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
@@ -3411,7 +3479,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -3426,7 +3494,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
@@ -3441,7 +3509,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
@@ -3456,7 +3524,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3471,7 +3539,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
@@ -3486,7 +3554,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
@@ -3501,7 +3569,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
@@ -3516,7 +3584,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
@@ -3531,7 +3599,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
@@ -3546,7 +3614,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
@@ -3561,7 +3629,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
@@ -3576,7 +3644,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
@@ -3591,7 +3659,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
@@ -3606,7 +3674,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -3621,7 +3689,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3636,7 +3704,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -3651,7 +3719,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3666,7 +3734,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>127</v>
       </c>
@@ -3678,7 +3746,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>130</v>
       </c>
@@ -3690,7 +3758,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>133</v>
       </c>
@@ -3702,7 +3770,7 @@
       </c>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
@@ -3714,7 +3782,7 @@
       </c>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -3726,7 +3794,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>142</v>
       </c>
@@ -3738,7 +3806,7 @@
       </c>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>143</v>
       </c>
@@ -3750,7 +3818,7 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
@@ -3762,7 +3830,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>149</v>
       </c>
@@ -3774,7 +3842,7 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
@@ -3786,7 +3854,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>155</v>
       </c>
@@ -3798,7 +3866,7 @@
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>158</v>
       </c>
@@ -3810,7 +3878,7 @@
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3822,7 +3890,7 @@
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>164</v>
       </c>
@@ -3834,7 +3902,7 @@
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>167</v>
       </c>
@@ -3846,7 +3914,7 @@
       </c>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>170</v>
       </c>
@@ -3858,7 +3926,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>173</v>
       </c>
@@ -3870,7 +3938,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>176</v>
       </c>

--- a/Project_Sprint_Report01-Team04.xlsx
+++ b/Project_Sprint_Report01-Team04.xlsx
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
